--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19CBB0E3F3A61D59/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748F429E-8E0B-4592-83A4-C4372037BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE34943-ED98-4461-B523-4DD72BBFD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="-28920" yWindow="8955" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>bem_cod</t>
   </si>
@@ -205,15 +205,37 @@
   </si>
   <si>
     <t>1609 SECAO DE PATRIMONIO</t>
+  </si>
+  <si>
+    <t>Desktop - Acer Aspire GX-783-BR11</t>
+  </si>
+  <si>
+    <t>FABLAB DELT</t>
+  </si>
+  <si>
+    <t>1200 FABLAB</t>
+  </si>
+  <si>
+    <t>CARMELA</t>
+  </si>
+  <si>
+    <t>Roteador Wireless Dual Band AC1350</t>
+  </si>
+  <si>
+    <t>Roteador Wireless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -239,10 +261,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,491 +667,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>20245773</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3">
+      <c r="AA2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>20245774</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4">
+      <c r="AA3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>20245775</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5">
+      <c r="AA4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>20245776</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6">
+      <c r="AA5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>20245777</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7">
+      <c r="AA6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>20245778</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8">
+      <c r="AA7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>20245779</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9">
+      <c r="AA8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1261002314</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1261002313</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
-      <c r="A11">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>74370615</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="12" customHeight="1">
-      <c r="A12">
+    <row r="12" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1261002315</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
-      <c r="A13">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1261002316</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="2"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12008525</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>12008524</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>
--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE34943-ED98-4461-B523-4DD72BBFD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761220E7-4BDE-4F9E-BC0F-523917249477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8955" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,540 +669,538 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>20245773</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>20245774</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>20245775</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>20245776</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>20245777</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>20245778</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>20245779</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AA8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>1261002314</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>1261002313</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>74370615</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>1261002315</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>1261002316</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" t="s">
         <v>33</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12008525</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14">
+        <v>1261002317</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>56</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" t="s">
         <v>33</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>12008524</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15">
+        <v>1261002318</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>56</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761220E7-4BDE-4F9E-BC0F-523917249477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E947F7-0F94-4776-8788-4E6DC51E91B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="-28920" yWindow="8955" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>bem_cod</t>
   </si>
@@ -223,13 +223,31 @@
   </si>
   <si>
     <t>Roteador Wireless</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>engenharia química bloco 2</t>
+  </si>
+  <si>
+    <t>Jamille Coelho Coimbra</t>
+  </si>
+  <si>
+    <t>engenharia química bloco 3</t>
+  </si>
+  <si>
+    <t>MONITOR LG 24 GAMER ULTRAGEAR FULL HD IPS 180HZ 1MS SRGB 99, HDR10, DISPLAYPORT HDMI G-SYNC FREESYNC, 24GS60F-B.AWZM EAN 789329995078</t>
+  </si>
+  <si>
+    <t>Intel Core i9-14900KF 24-Core 32-Threads - Placa mãe Z790P - 128GB Memória DDR5 5600Mhz (4x32) - 2x SSD 1TB Nvme Kingston 4x4 L:7300Mbs G:6000Mbs - Placa de Video RTX 3060 NVIDIA 12GB 192Bits Cuda: 3584 - Fonte ATX 3.0 Modular 1250W 80Plus Gold PFC Ativo Cooler Master - Gabinete Masterbox MB520 - W11P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -237,6 +255,17 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,11 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1204,8 +1235,67 @@
         <v>59</v>
       </c>
     </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1261002319</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5111</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1261002320</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5112</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coplot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CONFERENCIA_PATRIMONIAL_EEUFMG-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E947F7-0F94-4776-8788-4E6DC51E91B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C576864-A5A9-428B-BE47-0EA6736B51B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8955" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="16080" yWindow="12420" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t>bem_cod</t>
   </si>
@@ -241,6 +241,36 @@
   </si>
   <si>
     <t>Intel Core i9-14900KF 24-Core 32-Threads - Placa mãe Z790P - 128GB Memória DDR5 5600Mhz (4x32) - 2x SSD 1TB Nvme Kingston 4x4 L:7300Mbs G:6000Mbs - Placa de Video RTX 3060 NVIDIA 12GB 192Bits Cuda: 3584 - Fonte ATX 3.0 Modular 1250W 80Plus Gold PFC Ativo Cooler Master - Gabinete Masterbox MB520 - W11P</t>
+  </si>
+  <si>
+    <t>Roteador Wi-Fi 6 Gigabit Dual Band AX3000</t>
+  </si>
+  <si>
+    <t>Archer AX53 Roteador Wi-Fi 6 Gigabit Dual Band AX3000 SN:224C1M0006960</t>
+  </si>
+  <si>
+    <t>Roteador Wi-Fi Gigabit Dual Band AC1900</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Archer C80 Roteador Wi-Fi Gigabit Dual Band AC1900 SN:223B114000004</t>
+  </si>
+  <si>
+    <t>TL-WR829N Roteador Wi-Fi Multimodo 300 Mbps SN:22486X6004184</t>
+  </si>
+  <si>
+    <t>Roteador Wi-Fi Multimodo 300 Mbps</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>João Flávio</t>
+  </si>
+  <si>
+    <t>Cesar Rossas Mota</t>
   </si>
 </sst>
 </file>
@@ -697,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,6 +1238,9 @@
       <c r="AA14" t="s">
         <v>57</v>
       </c>
+      <c r="AB14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1263,8 +1296,11 @@
       <c r="AA16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AB16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1261002320</v>
       </c>
@@ -1291,6 +1327,99 @@
       </c>
       <c r="AA17" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4090312022</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18">
+        <v>4546</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4090312021</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4090312020</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4529</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CONFERENCIA_PATRIMONIAL_EEUFMG-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prisl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C576864-A5A9-428B-BE47-0EA6736B51B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2921C7-5F14-484C-BE71-D74A7960E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="12420" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>bem_cod</t>
   </si>
@@ -727,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1422,6 +1422,35 @@
         <v>75</v>
       </c>
     </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4090312023</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prisl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2921C7-5F14-484C-BE71-D74A7960E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D64ED0B-00D9-41BC-BCB1-9D389A693919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
   <sheets>
     <sheet name="bens" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>bem_cod</t>
   </si>
@@ -271,13 +271,34 @@
   </si>
   <si>
     <t>Cesar Rossas Mota</t>
+  </si>
+  <si>
+    <t>Audio visual</t>
+  </si>
+  <si>
+    <t>DESKTOP-D3Q4NUO - (Processador I5-9500F 3.0Ghz/8GB ID 00330-52444-19736-AAOEM)</t>
+  </si>
+  <si>
+    <t>DESKTOP-1DNGGR4 - (Processador I5-9500F 3.0Ghz/16GB ID F1B747CA-EA3A-48CC-B4C1-54CFABD48A3F)</t>
+  </si>
+  <si>
+    <t>DESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila Costa </t>
+  </si>
+  <si>
+    <t>tp-link (high Power) 450 Mbps (Roteador Wireless N) - TLWR941 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roteador Wi-Fi </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,6 +316,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2672EC"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -318,13 +358,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1442,13 +1485,135 @@
         <v>47</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s">
         <v>33</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20255476</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="5">
+        <v>4626</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20255477</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="5">
+        <v>4551</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20255478</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" s="4">
+        <v>4626</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20255479</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" s="4">
+        <v>4626</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/INTERNOS.xlsx
+++ b/INTERNOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prisl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D64ED0B-00D9-41BC-BCB1-9D389A693919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E48F33-3B2E-490D-AD0D-06BFD61C3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E6811B-D231-4444-AE52-4CEF79CF6B51}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>bem_cod</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t xml:space="preserve">Roteador Wi-Fi </t>
+  </si>
+  <si>
+    <t>tp-link - EX141  Roteador Wi-Fi 6 Gigabit Dual Band AX1500 EasyMesh TR-069</t>
+  </si>
+  <si>
+    <t>Roteador Wi-Fi 6 Gigabit</t>
+  </si>
+  <si>
+    <t>Renan Fernandes Kozan</t>
+  </si>
+  <si>
+    <t>1510 NAEENG</t>
   </si>
 </sst>
 </file>
@@ -770,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D421F3CB-7604-4C39-8747-214784704F08}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1616,6 +1628,35 @@
         <v>80</v>
       </c>
     </row>
+    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20255480</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
